--- a/va_facility_data_2025-02-20/El Paso Eastside VA Clinic - Facility Data.xlsx"; filename*=UTF-8''El%20Paso%20Eastside%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/El Paso Eastside VA Clinic - Facility Data.xlsx"; filename*=UTF-8''El%20Paso%20Eastside%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R581d9c677ff941139c1dcfc184efbf66"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R56fa7591137e48c7b3fb16ae3bffaa9a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re00efc03557f45d0828b5b61fdbcc575"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2b303ce83e4549ee8e5e9332b64da6a2"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra6ac8c14787a48b48f7213c99960f4d6"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Reabd98699eb94c238ff30852f73802fd"/>
   </x:sheets>
 </x:workbook>
 </file>
